--- a/Excel/DialogDatas.xlsx
+++ b/Excel/DialogDatas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14900"/>
+    <workbookView windowHeight="15220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1338,8 +1338,8 @@
   <sheetPr/>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="3">
-        <v>10208</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DialogDatas.xlsx
+++ b/Excel/DialogDatas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15220"/>
+    <workbookView windowWidth="21000" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
   <si>
     <t>int</t>
   </si>
@@ -47,6 +47,12 @@
     <t>对话的触发时机，0代表isStart,1代表isSpeaking，2代表isEnd，isEnd暂时没用</t>
   </si>
   <si>
+    <t>对话主体的名字</t>
+  </si>
+  <si>
+    <t>对话主体的头像资源位置</t>
+  </si>
+  <si>
     <t>如果是获得道具的对话，需要写出道具的id，默认没有道具，值为-1</t>
   </si>
   <si>
@@ -74,6 +80,12 @@
     <t>dialogTime</t>
   </si>
   <si>
+    <t>dialogName</t>
+  </si>
+  <si>
+    <t>headIconRes</t>
+  </si>
+  <si>
     <t>itemID</t>
   </si>
   <si>
@@ -87,6 +99,12 @@
   </si>
   <si>
     <t>childNodes</t>
+  </si>
+  <si>
+    <t>迈克</t>
+  </si>
+  <si>
+    <t>Sprites/MainRole</t>
   </si>
   <si>
     <t>又做梦了，怎么最近老是梦到奇怪的场景</t>
@@ -112,12 +130,24 @@
     </r>
   </si>
   <si>
+    <t>相框</t>
+  </si>
+  <si>
+    <t>Sprites/God</t>
+  </si>
+  <si>
     <t>这是一张全家福。不过爸爸最近出差了，不知道什么时候回来。</t>
   </si>
   <si>
+    <t>桌子</t>
+  </si>
+  <si>
     <t>吃饭的地方。有时除了饭还想吃点别的。</t>
   </si>
   <si>
+    <t>电视</t>
+  </si>
+  <si>
     <t>近日，镇上隔壁老王失踪多日后确认遇害。</t>
   </si>
   <si>
@@ -125,6 +155,12 @@
   </si>
   <si>
     <t>bob来了，我去开门吧</t>
+  </si>
+  <si>
+    <t>鲍勃</t>
+  </si>
+  <si>
+    <t>Sprites/Bob</t>
   </si>
   <si>
     <t>嘿bro，看我在家里翻出一个水晶徽章，送给你</t>
@@ -1336,25 +1372,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9.23148148148148" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.9903846153846" customWidth="1"/>
-    <col min="2" max="2" width="19.3846153846154" customWidth="1"/>
-    <col min="3" max="3" width="27.2403846153846" customWidth="1"/>
-    <col min="4" max="4" width="25.4711538461538" customWidth="1"/>
-    <col min="5" max="5" width="23.7115384615385" customWidth="1"/>
-    <col min="6" max="7" width="26.1153846153846" customWidth="1"/>
-    <col min="8" max="8" width="30.125" customWidth="1"/>
-    <col min="9" max="9" width="25.6442307692308" customWidth="1"/>
+    <col min="1" max="1" width="20.9907407407407" customWidth="1"/>
+    <col min="2" max="2" width="19.3888888888889" customWidth="1"/>
+    <col min="3" max="3" width="27.2407407407407" customWidth="1"/>
+    <col min="4" max="4" width="25.4722222222222" customWidth="1"/>
+    <col min="5" max="5" width="26.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="34.5555555555556" customWidth="1"/>
+    <col min="7" max="7" width="23.712962962963" customWidth="1"/>
+    <col min="8" max="9" width="26.1111111111111" customWidth="1"/>
+    <col min="10" max="10" width="30.1296296296296" customWidth="1"/>
+    <col min="11" max="11" width="25.6481481481481" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1368,22 +1406,28 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="235" customHeight="1" spans="1:9">
+    <row r="2" ht="235" customHeight="1" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1411,37 +1455,49 @@
       <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="J2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" ht="34.4" spans="1:9">
+    <row r="3" ht="30" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" ht="70" spans="1:9">
+    <row r="4" ht="61.2" spans="1:11">
       <c r="A4" s="3">
         <v>10001</v>
       </c>
@@ -1454,23 +1510,29 @@
       <c r="D4" s="3">
         <v>0</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="3">
         <v>-1</v>
       </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="H4" s="3">
         <v>0</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
         <v>10002</v>
       </c>
     </row>
-    <row r="5" ht="70" spans="1:9">
+    <row r="5" ht="61.2" spans="1:11">
       <c r="A5" s="3">
         <v>10002</v>
       </c>
@@ -1483,23 +1545,29 @@
       <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="3">
         <v>-1</v>
       </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="H5" s="3">
         <v>0</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="93" spans="1:9">
+    <row r="6" ht="81.6" spans="1:11">
       <c r="A6" s="3">
         <v>1001</v>
       </c>
@@ -1512,23 +1580,29 @@
       <c r="D6" s="3">
         <v>0</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="3">
         <v>-1</v>
       </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="H6" s="3">
         <v>0</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="70" spans="1:9">
+    <row r="7" ht="61.2" spans="1:11">
       <c r="A7" s="3">
         <v>1101</v>
       </c>
@@ -1541,23 +1615,29 @@
       <c r="D7" s="3">
         <v>0</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="3">
         <v>-1</v>
       </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H7" s="3">
         <v>0</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="70" spans="1:9">
+    <row r="8" ht="61.2" spans="1:11">
       <c r="A8" s="3">
         <v>1201</v>
       </c>
@@ -1570,23 +1650,29 @@
       <c r="D8" s="3">
         <v>0</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="3">
         <v>-1</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>1202</v>
       </c>
     </row>
-    <row r="9" ht="93" spans="1:9">
+    <row r="9" ht="81.6" spans="1:11">
       <c r="A9" s="3">
         <v>1202</v>
       </c>
@@ -1599,23 +1685,29 @@
       <c r="D9" s="3">
         <v>1</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="3">
         <v>-1</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>-20</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="47" spans="1:9">
+    <row r="10" ht="40.8" spans="1:11">
       <c r="A10" s="3">
         <v>10101</v>
       </c>
@@ -1628,23 +1720,29 @@
       <c r="D10" s="3">
         <v>0</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="3">
         <v>-1</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="70" spans="1:9">
+    <row r="11" s="1" customFormat="1" ht="61.2" spans="1:11">
       <c r="A11" s="4">
         <v>10201</v>
       </c>
@@ -1657,23 +1755,29 @@
       <c r="D11" s="4">
         <v>0</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="4">
         <v>-1</v>
       </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="H11" s="4">
         <v>0</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
         <v>10202</v>
       </c>
     </row>
-    <row r="12" ht="70" spans="1:9">
+    <row r="12" ht="61.2" spans="1:11">
       <c r="A12" s="3">
         <v>10202</v>
       </c>
@@ -1686,23 +1790,29 @@
       <c r="D12" s="3">
         <v>1</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="3">
         <v>1</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="H12" s="3">
         <v>0</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
         <v>10203</v>
       </c>
     </row>
-    <row r="13" ht="47" spans="1:9">
+    <row r="13" ht="40.8" spans="1:11">
       <c r="A13" s="3">
         <v>10203</v>
       </c>
@@ -1715,23 +1825,29 @@
       <c r="D13" s="3">
         <v>1</v>
       </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="E13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
         <v>5</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
         <v>10204</v>
       </c>
     </row>
-    <row r="14" ht="93" spans="1:9">
+    <row r="14" ht="81.6" spans="1:11">
       <c r="A14" s="3">
         <v>10204</v>
       </c>
@@ -1744,23 +1860,29 @@
       <c r="D14" s="3">
         <v>1</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>30</v>
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>10205</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="70" spans="1:9">
+    <row r="15" s="1" customFormat="1" ht="61.2" spans="1:11">
       <c r="A15" s="4">
         <v>10205</v>
       </c>
@@ -1773,23 +1895,29 @@
       <c r="D15" s="4">
         <v>1</v>
       </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>31</v>
+      <c r="E15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
       </c>
       <c r="H15" s="4">
         <v>0</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
         <v>10206</v>
       </c>
     </row>
-    <row r="16" ht="34.4" spans="1:9">
+    <row r="16" ht="30" spans="1:11">
       <c r="A16" s="3">
         <v>10206</v>
       </c>
@@ -1802,23 +1930,29 @@
       <c r="D16" s="3">
         <v>1</v>
       </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>32</v>
+      <c r="E16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
         <v>10207</v>
       </c>
     </row>
-    <row r="17" ht="34.4" spans="1:9">
+    <row r="17" ht="30" spans="1:11">
       <c r="A17" s="3">
         <v>10207</v>
       </c>
@@ -1831,19 +1965,25 @@
       <c r="D17" s="3">
         <v>1</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>33</v>
+      <c r="E17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>0</v>
       </c>
     </row>

--- a/Excel/DialogDatas.xlsx
+++ b/Excel/DialogDatas.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="130">
   <si>
     <t>int</t>
   </si>
@@ -38,7 +38,7 @@
     <t>对话数据的id</t>
   </si>
   <si>
-    <t>对话主体的类型：0代表主角，1代表Mom，2代表Bob，3代表God，4代表TV，5代表相框，6代表桌子</t>
+    <t>对话主体的类型：0代表主角，1代表Mom，2代表Bob，3代表God，4代表TV，5代表相框，6代表桌子，7代表猫，8代表狗，9代表炸鸡店，10代表糖果店，11代表花店，12代表路人甲，13代表路人乙，14代表路人丙，15代表路人丁，16代表David‘Mom</t>
   </si>
   <si>
     <t>对话的类型：0代表Normal，1代表Task，2代表Item，3代表Choose，4代表Effect</t>
@@ -108,80 +108,366 @@
   </si>
   <si>
     <t>又做梦了，怎么最近老是梦到奇怪的场景</t>
+  </si>
+  <si>
+    <t xml:space="preserve">别管了，出去走走吧，今天还约了bob来家里玩 </t>
+  </si>
+  <si>
+    <t>相框</t>
+  </si>
+  <si>
+    <t>Sprites/God</t>
+  </si>
+  <si>
+    <t>这是一张全家福。不过爸爸最近出差了，不知道什么时候回来。</t>
+  </si>
+  <si>
+    <t>桌子</t>
+  </si>
+  <si>
+    <t>吃饭的地方。有时除了饭还想吃点别的。</t>
+  </si>
+  <si>
+    <t>电视</t>
+  </si>
+  <si>
+    <t>近日，镇上隔壁老王失踪多日后确认遇害。</t>
+  </si>
+  <si>
+    <t>据透露，有人上山时打猎时在的山中发现他的残缺的遗体......</t>
+  </si>
+  <si>
+    <t>bob来了，我去开门吧</t>
+  </si>
+  <si>
+    <t>鲍勃</t>
+  </si>
+  <si>
+    <t>Sprites/Bob</t>
+  </si>
+  <si>
+    <t>嘿bro，看我在家里翻出一个水晶徽章，送给你</t>
+  </si>
+  <si>
+    <t>徽章中镶嵌着水晶，在阳光下很耀眼，似乎很珍贵</t>
+  </si>
+  <si>
+    <t>谢谢你，很好看，我很喜欢。</t>
+  </si>
+  <si>
+    <t>对了，你听说了隔壁老王的事吗？太可怕了，他住的就离我们家不远。</t>
+  </si>
+  <si>
+    <t>我听家里人说了...他们还让我不要多问。</t>
+  </si>
+  <si>
+    <t>......</t>
+  </si>
+  <si>
+    <t>一起走走吧。</t>
+  </si>
+  <si>
+    <t>猫</t>
+  </si>
+  <si>
+    <t>猫抬头看了你一眼，并伸了个懒腰</t>
+  </si>
+  <si>
+    <t>狗</t>
+  </si>
+  <si>
+    <t>继续继续，狗子更喜欢你</t>
+  </si>
+  <si>
+    <t>炸鸡店</t>
+  </si>
+  <si>
+    <t>好心的老板给了两位小朋友一人一个炸鸡腿</t>
+  </si>
+  <si>
+    <t>糖果店</t>
+  </si>
+  <si>
+    <t>小时候最爱吃的糖果。不对现在就是小时候啊喂</t>
+  </si>
+  <si>
+    <t>花店</t>
+  </si>
+  <si>
+    <t>买束花吧，或许接下来会有用</t>
+  </si>
+  <si>
+    <t>好像是隔壁老王家在举行葬礼</t>
+  </si>
+  <si>
+    <t>路人甲</t>
+  </si>
+  <si>
+    <t>上周我还跟老王聊天呢。哎。他说他睡得不太好。</t>
+  </si>
+  <si>
+    <t>路人乙</t>
+  </si>
+  <si>
+    <t>我最近也睡得不好，醒来总是很疲惫。</t>
+  </si>
+  <si>
+    <t>奇怪的是，醒来鞋子上有湿泥土的痕迹。但最近只有晚上下雨啊</t>
+  </si>
+  <si>
+    <t>旁白</t>
+  </si>
+  <si>
+    <t>快傍晚了，心底有一股力量在说你们该回家了</t>
+  </si>
+  <si>
+    <t>我总觉得有些不对，bob你明天再来我家吧</t>
+  </si>
+  <si>
+    <t>想想今天所看到的。奇怪的梦，遇害的隔壁老王，带血的牙齿，异常的毛发......</t>
+  </si>
+  <si>
+    <t>妈妈</t>
+  </si>
+  <si>
+    <t>Sprites/Mom</t>
+  </si>
+  <si>
+    <t>宝贝，喝了牛奶快睡觉吧。</t>
+  </si>
+  <si>
+    <t>我有点不想喝</t>
+  </si>
+  <si>
+    <t>不喝的话晚上会有怪兽来抓你噢。</t>
+  </si>
+  <si>
+    <t>我才不怕呢，有怪兽我会打败它的。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">这里感觉好像平常的街道 </t>
+  </si>
+  <si>
+    <t>哇我穿着勇士的铠甲，还有一把剑</t>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="16"/>
+        <sz val="24"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>别管了，出去走走吧，今天还约了bob来家里玩</t>
+      <t>又是怪兽！</t>
     </r>
     <r>
       <rPr>
-        <sz val="16"/>
+        <sz val="24"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等等，那个人好像是我们镇上的，得快点去救他！</t>
+    </r>
+  </si>
+  <si>
+    <t>水晶闪着奇异的光芒</t>
+  </si>
+  <si>
+    <t>这太奇怪了，我居然又做了这种梦</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="24"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
+      <t>等下bob来，必须得和他说一下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
   </si>
   <si>
-    <t>相框</t>
-  </si>
-  <si>
-    <t>Sprites/God</t>
-  </si>
-  <si>
-    <t>这是一张全家福。不过爸爸最近出差了，不知道什么时候回来。</t>
-  </si>
-  <si>
-    <t>桌子</t>
-  </si>
-  <si>
-    <t>吃饭的地方。有时除了饭还想吃点别的。</t>
-  </si>
-  <si>
-    <t>电视</t>
-  </si>
-  <si>
-    <t>近日，镇上隔壁老王失踪多日后确认遇害。</t>
-  </si>
-  <si>
-    <t>据透露，有人上山时打猎时在的山中发现他的残缺的遗体......</t>
-  </si>
-  <si>
-    <t>bob来了，我去开门吧</t>
-  </si>
-  <si>
-    <t>鲍勃</t>
-  </si>
-  <si>
-    <t>Sprites/Bob</t>
-  </si>
-  <si>
-    <t>嘿bro，看我在家里翻出一个水晶徽章，送给你</t>
-  </si>
-  <si>
-    <t>徽章中镶嵌着水晶，在阳光下很耀眼，似乎很珍贵</t>
-  </si>
-  <si>
-    <t>谢谢你，很好看，我很喜欢。</t>
-  </si>
-  <si>
-    <t>对了，你听说了隔壁老王的事吗？太可怕了，他住的就离我们家不远。</t>
-  </si>
-  <si>
-    <t>我听家里人说了...他们还让我不要多问。</t>
-  </si>
-  <si>
-    <t>......</t>
-  </si>
-  <si>
-    <t>一起走走吧。</t>
+    <t>嘿bob我跟你说，我这两天都梦见我在打怪兽。</t>
+  </si>
+  <si>
+    <t>我特别厉害，一刀一个打倒了很多怪兽，还救了路人</t>
+  </si>
+  <si>
+    <t>我今天早上起来好像都有点腰酸背痛呢</t>
+  </si>
+  <si>
+    <t>但我觉得这有些奇怪。</t>
+  </si>
+  <si>
+    <t>我才不信呢，如果我打怪兽肯定比你厉害 。我家可还有圣剑！</t>
+  </si>
+  <si>
+    <t>那可不一定！但是说不定今晚你也能梦到，我们一起打怪兽</t>
+  </si>
+  <si>
+    <t>可是我从来没做过梦</t>
+  </si>
+  <si>
+    <t>怎么会呢？我就经常做梦</t>
+  </si>
+  <si>
+    <t>别说这些了，进去坐坐，我们喝牛奶吧</t>
+  </si>
+  <si>
+    <t>好啊。不过那种东西你天天喝还没喝腻吗</t>
+  </si>
+  <si>
+    <t>没办法，我妈让我喝，说长得高</t>
+  </si>
+  <si>
+    <t>你们不可以白天喝牛奶噢。乖，去外边玩吧</t>
+  </si>
+  <si>
+    <t>为什么妈妈不让我们现在喝牛奶呢？好奇怪</t>
+  </si>
+  <si>
+    <t>要不给小猫喝一下？</t>
+  </si>
+  <si>
+    <t>猫喝了牛奶很快呼呼大睡了，你心里觉得更奇怪了</t>
+  </si>
+  <si>
+    <t>小猫真是吃饱了就睡觉了。我们把它的铃铛取下来吧</t>
+  </si>
+  <si>
+    <t>看起来有些旧，收着可能有用吧</t>
+  </si>
+  <si>
+    <t>不应该是这样的，我们得去问问其他人</t>
+  </si>
+  <si>
+    <t>叔叔，想问你会在白天喝牛奶吗</t>
+  </si>
+  <si>
+    <t>会。但我指的牛奶跟你说的不是同一种吧。</t>
+  </si>
+  <si>
+    <t>......为什么这么说</t>
+  </si>
+  <si>
+    <t>是你家大人不让你们喝吗？我只能告诉你，我的父母从小也是这么告诉我的，父母的父母那辈也是如此。</t>
+  </si>
+  <si>
+    <t>说不定只有我们镇上，父母会跟孩子说睡前不喝牛奶会有怪兽来抓你呢。</t>
+  </si>
+  <si>
+    <t>你长大就知道了。有些事情就是这样传承下来的。不需要知道为什么。</t>
+  </si>
+  <si>
+    <t>我爱睡觉皮肤好好，啦啦啦</t>
+  </si>
+  <si>
+    <t>路人丙</t>
+  </si>
+  <si>
+    <t>又要轮到我家去洞穴开采药物了</t>
+  </si>
+  <si>
+    <t>路人丁</t>
+  </si>
+  <si>
+    <t>最近晚上不安全啊</t>
+  </si>
+  <si>
+    <t>宝贝，喝牛奶长高高，喝了快睡觉吧</t>
+  </si>
+  <si>
+    <t>你感到牛奶也很奇怪，但心底有股冲动还是想喝下去</t>
+  </si>
+  <si>
+    <t>鲍勃的妈妈</t>
+  </si>
+  <si>
+    <t>bob！把作业写了之后把这个喝了，你怎么又在玩玩具！</t>
+  </si>
+  <si>
+    <t>这是圣剑啦！作业我早就写完了，还有，我不想喝这个了，我都喝腻了</t>
+  </si>
+  <si>
+    <t>这个牛奶的味道让我恶心。（拿过杯子）（也许我可以偷偷把它倒掉）</t>
+  </si>
+  <si>
+    <t>奇怪，今天怎么有点睡不着？</t>
+  </si>
+  <si>
+    <t>（外面月光明亮）</t>
+  </si>
+  <si>
+    <t>带上圣剑出去走走吧</t>
+  </si>
+  <si>
+    <t>还从来没有在这时候出过门呢，路上怎么一个人都没有。我有点害怕了，也许我该回去了</t>
+  </si>
+  <si>
+    <t>那里有个人！等等，那些是什么啊！</t>
+  </si>
+  <si>
+    <t>啊！那些怪物吃了他！我要快点回家！</t>
+  </si>
+  <si>
+    <t>我家门口也有那种怪兽！去Mike家吧！</t>
+  </si>
+  <si>
+    <t>又是昨天一样的梦......得快点救下那个人！</t>
+  </si>
+  <si>
+    <t>刚刚真是吓死我了， 我手上怎么有伤痕？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">这果然不是梦吗 </t>
+  </si>
+  <si>
+    <t>怪兽到底是哪里来的</t>
+  </si>
+  <si>
+    <t>这么晚了，还有谁会来呢</t>
+  </si>
+  <si>
+    <t>救命啊 , mike快开门，</t>
+  </si>
+  <si>
+    <t>你都不知道我在外面看到了什么恐怖的东西</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我闻到一股香甜的味道。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">我感觉身体在被撕裂，正在慢慢变大，牙齿也在变长...... </t>
+  </si>
+  <si>
+    <t>我难以抑制的向前扑了过去</t>
   </si>
 </sst>
 </file>
@@ -194,7 +480,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,17 +489,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="24"/>
       <color theme="4"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="24"/>
@@ -228,8 +515,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="4"/>
+      <sz val="24"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FF4874CB"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -376,6 +669,24 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -679,7 +990,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -698,144 +1009,150 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -844,11 +1161,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
     <cellStyle name="货币" xfId="2" builtinId="4"/>
@@ -898,6 +1221,7 @@
     <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -1372,623 +1696,3361 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23148148148148" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.22222222222222" defaultRowHeight="30.6"/>
   <cols>
-    <col min="1" max="1" width="20.9907407407407" customWidth="1"/>
-    <col min="2" max="2" width="19.3888888888889" customWidth="1"/>
-    <col min="3" max="3" width="27.2407407407407" customWidth="1"/>
-    <col min="4" max="4" width="25.4722222222222" customWidth="1"/>
-    <col min="5" max="5" width="26.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="34.5555555555556" customWidth="1"/>
-    <col min="7" max="7" width="23.712962962963" customWidth="1"/>
-    <col min="8" max="9" width="26.1111111111111" customWidth="1"/>
-    <col min="10" max="10" width="30.1296296296296" customWidth="1"/>
-    <col min="11" max="11" width="25.6481481481481" customWidth="1"/>
+    <col min="1" max="1" width="21" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.6666666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.2222222222222" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.4444444444444" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.1111111111111" style="2" customWidth="1"/>
+    <col min="6" max="6" width="34.5555555555556" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.6666666666667" style="2" customWidth="1"/>
+    <col min="8" max="8" width="26.1111111111111" style="2" customWidth="1"/>
+    <col min="9" max="9" width="40.8333333333333" style="2" customWidth="1"/>
+    <col min="10" max="10" width="30.1111111111111" style="2" customWidth="1"/>
+    <col min="11" max="11" width="25.6666666666667" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.22222222222222" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" ht="235" customHeight="1" spans="1:11">
-      <c r="A2" s="2" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" ht="235.05" customHeight="1" spans="1:11">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="30" spans="1:11">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" ht="61.2" spans="1:11">
-      <c r="A4" s="3">
+    <row r="4" ht="90" spans="1:11">
+      <c r="A4" s="4">
         <v>10001</v>
       </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="G4" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
         <v>10002</v>
       </c>
     </row>
-    <row r="5" ht="61.2" spans="1:11">
-      <c r="A5" s="3">
+    <row r="5" ht="90" spans="1:11">
+      <c r="A5" s="4">
         <v>10002</v>
       </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="G5" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" ht="81.6" spans="1:11">
-      <c r="A6" s="3">
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="120" spans="1:11">
+      <c r="A6" s="4">
         <v>1001</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>5</v>
       </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="G6" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" ht="61.2" spans="1:11">
-      <c r="A7" s="3">
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="90" spans="1:11">
+      <c r="A7" s="4">
         <v>1101</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>6</v>
       </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="G7" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" ht="61.2" spans="1:11">
-      <c r="A8" s="3">
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="90" spans="1:11">
+      <c r="A8" s="4">
         <v>1201</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="G8" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
         <v>1202</v>
       </c>
     </row>
-    <row r="9" ht="81.6" spans="1:11">
-      <c r="A9" s="3">
+    <row r="9" ht="120" spans="1:11">
+      <c r="A9" s="4">
         <v>1202</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>4</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="G9" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="4">
         <v>-20</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" ht="40.8" spans="1:11">
-      <c r="A10" s="3">
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="60" spans="1:11">
+      <c r="A10" s="4">
         <v>10101</v>
       </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="G10" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="61.2" spans="1:11">
-      <c r="A11" s="4">
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="90" spans="1:11">
+      <c r="A11" s="5">
         <v>10201</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="5">
         <v>2</v>
       </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="4">
-        <v>-1</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5" t="s">
+      <c r="G11" s="5">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
         <v>10202</v>
       </c>
     </row>
-    <row r="12" ht="61.2" spans="1:11">
-      <c r="A12" s="3">
+    <row r="12" ht="90" spans="1:11">
+      <c r="A12" s="4">
         <v>10202</v>
       </c>
-      <c r="B12" s="3">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
         <v>2</v>
       </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2" t="s">
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
         <v>10203</v>
       </c>
     </row>
-    <row r="13" ht="40.8" spans="1:11">
-      <c r="A13" s="3">
+    <row r="13" ht="60" spans="1:11">
+      <c r="A13" s="4">
         <v>10203</v>
       </c>
-      <c r="B13" s="3">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
         <v>4</v>
       </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
         <v>5</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3">
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
         <v>10204</v>
       </c>
     </row>
-    <row r="14" ht="81.6" spans="1:11">
-      <c r="A14" s="3">
+    <row r="14" ht="120" spans="1:11">
+      <c r="A14" s="4">
         <v>10204</v>
       </c>
-      <c r="B14" s="3">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2" t="s">
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
         <v>10205</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="61.2" spans="1:11">
-      <c r="A15" s="4">
+    <row r="15" s="1" customFormat="1" ht="90" spans="1:11">
+      <c r="A15" s="5">
         <v>10205</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="5">
         <v>2</v>
       </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5" t="s">
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J15" s="4">
-        <v>0</v>
-      </c>
-      <c r="K15" s="4">
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5">
         <v>10206</v>
       </c>
     </row>
-    <row r="16" ht="30" spans="1:11">
-      <c r="A16" s="3">
+    <row r="16" spans="1:11">
+      <c r="A16" s="4">
         <v>10206</v>
       </c>
-      <c r="B16" s="3">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2" t="s">
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J16" s="3">
-        <v>0</v>
-      </c>
-      <c r="K16" s="3">
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
         <v>10207</v>
       </c>
     </row>
-    <row r="17" ht="30" spans="1:11">
-      <c r="A17" s="3">
+    <row r="17" spans="1:11">
+      <c r="A17" s="4">
         <v>10207</v>
       </c>
-      <c r="B17" s="3">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2" t="s">
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="60" spans="1:11">
+      <c r="A18" s="4">
+        <v>1301</v>
+      </c>
+      <c r="B18" s="4">
+        <v>7</v>
+      </c>
+      <c r="C18" s="4">
+        <v>4</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H18" s="4">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="60" spans="1:11">
+      <c r="A19" s="4">
+        <v>1401</v>
+      </c>
+      <c r="B19" s="4">
+        <v>8</v>
+      </c>
+      <c r="C19" s="4">
+        <v>4</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H19" s="4">
+        <v>5</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="90" spans="1:11">
+      <c r="A20" s="4">
+        <v>1501</v>
+      </c>
+      <c r="B20" s="4">
+        <v>9</v>
+      </c>
+      <c r="C20" s="4">
+        <v>4</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H20" s="4">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="90" spans="1:11">
+      <c r="A21" s="4">
+        <v>1601</v>
+      </c>
+      <c r="B21" s="4">
+        <v>10</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="60" spans="1:11">
+      <c r="A22" s="4">
+        <v>1701</v>
+      </c>
+      <c r="B22" s="4">
+        <v>11</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="60" spans="1:11">
+      <c r="A23" s="4">
+        <v>10301</v>
+      </c>
+      <c r="B23" s="4">
+        <v>2</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="5">
+        <v>-1</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" ht="90" spans="1:11">
+      <c r="A24" s="4">
+        <v>10401</v>
+      </c>
+      <c r="B24" s="4">
+        <v>12</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <v>10402</v>
+      </c>
+    </row>
+    <row r="25" ht="90" spans="1:11">
+      <c r="A25" s="4">
+        <v>10402</v>
+      </c>
+      <c r="B25" s="4">
+        <v>13</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <v>10404</v>
+      </c>
+    </row>
+    <row r="26" ht="120" spans="1:11">
+      <c r="A26" s="4">
+        <v>10404</v>
+      </c>
+      <c r="B26" s="4">
+        <v>13</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <v>10403</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="4">
+        <v>10403</v>
+      </c>
+      <c r="B27" s="4">
+        <v>12</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" ht="90" spans="1:11">
+      <c r="A28" s="4">
+        <v>10501</v>
+      </c>
+      <c r="B28" s="4">
+        <v>3</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0</v>
+      </c>
+      <c r="K28" s="4">
+        <v>10502</v>
+      </c>
+    </row>
+    <row r="29" ht="90" spans="1:11">
+      <c r="A29" s="4">
+        <v>10502</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="150" spans="1:11">
+      <c r="A30" s="5">
+        <v>1801</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0</v>
+      </c>
+      <c r="C30" s="5">
+        <v>3</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="5">
+        <v>-1</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" ht="60" spans="1:11">
+      <c r="A31" s="4">
+        <v>10601</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0</v>
+      </c>
+      <c r="K31" s="4">
+        <v>10602</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="4">
+        <v>10602</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J32" s="4">
+        <v>0</v>
+      </c>
+      <c r="K32" s="4">
+        <v>10603</v>
+      </c>
+    </row>
+    <row r="33" ht="60" spans="1:11">
+      <c r="A33" s="4">
+        <v>10603</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J33" s="4">
+        <v>0</v>
+      </c>
+      <c r="K33" s="4">
+        <v>10604</v>
+      </c>
+    </row>
+    <row r="34" ht="60" spans="1:11">
+      <c r="A34" s="4">
+        <v>10604</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J34" s="4">
+        <v>0</v>
+      </c>
+      <c r="K34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" ht="60" spans="1:11">
+      <c r="A35" s="4">
+        <v>10701</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J35" s="4">
+        <v>0</v>
+      </c>
+      <c r="K35" s="4">
+        <v>10702</v>
+      </c>
+    </row>
+    <row r="36" ht="60" spans="1:11">
+      <c r="A36" s="4">
+        <v>10702</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J36" s="4">
+        <v>0</v>
+      </c>
+      <c r="K36" s="4">
+        <v>10703</v>
+      </c>
+    </row>
+    <row r="37" ht="132" spans="1:11">
+      <c r="A37" s="4">
+        <v>10703</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J37" s="4">
+        <v>0</v>
+      </c>
+      <c r="K37" s="4">
+        <v>10704</v>
+      </c>
+    </row>
+    <row r="38" ht="60" spans="1:11">
+      <c r="A38" s="4">
+        <v>10704</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J38" s="4">
+        <v>0</v>
+      </c>
+      <c r="K38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" ht="60" spans="1:11">
+      <c r="A39" s="4">
+        <v>10801</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0</v>
+      </c>
+      <c r="C39" s="4">
+        <v>4</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H39" s="4">
+        <v>-10</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0</v>
+      </c>
+      <c r="K39" s="4">
+        <v>10802</v>
+      </c>
+    </row>
+    <row r="40" ht="63" spans="1:11">
+      <c r="A40" s="4">
+        <v>10802</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J40" s="4">
+        <v>0</v>
+      </c>
+      <c r="K40" s="4">
+        <v>10803</v>
+      </c>
+    </row>
+    <row r="41" ht="60" spans="1:11">
+      <c r="A41" s="4">
+        <v>10803</v>
+      </c>
+      <c r="B41" s="4">
+        <v>0</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J41" s="4">
+        <v>0</v>
+      </c>
+      <c r="K41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" ht="90" spans="1:11">
+      <c r="A42" s="4">
+        <v>10901</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J42" s="4">
+        <v>0</v>
+      </c>
+      <c r="K42" s="4">
+        <v>10902</v>
+      </c>
+    </row>
+    <row r="43" ht="90" spans="1:11">
+      <c r="A43" s="4">
+        <v>10902</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0</v>
+      </c>
+      <c r="C43" s="4">
+        <v>1</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J43" s="4">
+        <v>0</v>
+      </c>
+      <c r="K43" s="4">
+        <v>10903</v>
+      </c>
+    </row>
+    <row r="44" ht="90" spans="1:11">
+      <c r="A44" s="4">
+        <v>10903</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0</v>
+      </c>
+      <c r="C44" s="4">
+        <v>1</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J44" s="4">
+        <v>0</v>
+      </c>
+      <c r="K44" s="4">
+        <v>10904</v>
+      </c>
+    </row>
+    <row r="45" ht="60" spans="1:11">
+      <c r="A45" s="4">
+        <v>10904</v>
+      </c>
+      <c r="B45" s="4">
+        <v>0</v>
+      </c>
+      <c r="C45" s="4">
+        <v>1</v>
+      </c>
+      <c r="D45" s="4">
+        <v>1</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H45" s="4">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J45" s="4">
+        <v>0</v>
+      </c>
+      <c r="K45" s="4">
+        <v>10905</v>
+      </c>
+    </row>
+    <row r="46" ht="120" spans="1:11">
+      <c r="A46" s="4">
+        <v>10905</v>
+      </c>
+      <c r="B46" s="4">
+        <v>2</v>
+      </c>
+      <c r="C46" s="4">
+        <v>1</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H46" s="4">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J46" s="4">
+        <v>0</v>
+      </c>
+      <c r="K46" s="4">
+        <v>10906</v>
+      </c>
+    </row>
+    <row r="47" ht="120" spans="1:11">
+      <c r="A47" s="4">
+        <v>10906</v>
+      </c>
+      <c r="B47" s="4">
+        <v>0</v>
+      </c>
+      <c r="C47" s="4">
+        <v>1</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J47" s="4">
+        <v>0</v>
+      </c>
+      <c r="K47" s="4">
+        <v>10907</v>
+      </c>
+    </row>
+    <row r="48" ht="60" spans="1:11">
+      <c r="A48" s="4">
+        <v>10907</v>
+      </c>
+      <c r="B48" s="4">
+        <v>2</v>
+      </c>
+      <c r="C48" s="4">
+        <v>1</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G48" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H48" s="4">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J48" s="4">
+        <v>0</v>
+      </c>
+      <c r="K48" s="4">
+        <v>10908</v>
+      </c>
+    </row>
+    <row r="49" ht="60" spans="1:11">
+      <c r="A49" s="4">
+        <v>10908</v>
+      </c>
+      <c r="B49" s="4">
+        <v>0</v>
+      </c>
+      <c r="C49" s="4">
+        <v>1</v>
+      </c>
+      <c r="D49" s="4">
+        <v>1</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H49" s="4">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J49" s="4">
+        <v>0</v>
+      </c>
+      <c r="K49" s="4">
+        <v>10909</v>
+      </c>
+    </row>
+    <row r="50" ht="90" spans="1:11">
+      <c r="A50" s="4">
+        <v>10909</v>
+      </c>
+      <c r="B50" s="4">
+        <v>0</v>
+      </c>
+      <c r="C50" s="4">
+        <v>1</v>
+      </c>
+      <c r="D50" s="4">
+        <v>1</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H50" s="4">
+        <v>0</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J50" s="4">
+        <v>0</v>
+      </c>
+      <c r="K50" s="4">
+        <v>10910</v>
+      </c>
+    </row>
+    <row r="51" ht="90" spans="1:11">
+      <c r="A51" s="4">
+        <v>10910</v>
+      </c>
+      <c r="B51" s="4">
+        <v>2</v>
+      </c>
+      <c r="C51" s="4">
+        <v>1</v>
+      </c>
+      <c r="D51" s="4">
+        <v>1</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G51" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H51" s="4">
+        <v>0</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J51" s="4">
+        <v>0</v>
+      </c>
+      <c r="K51" s="4">
+        <v>10911</v>
+      </c>
+    </row>
+    <row r="52" ht="60" spans="1:11">
+      <c r="A52" s="4">
+        <v>10911</v>
+      </c>
+      <c r="B52" s="4">
+        <v>0</v>
+      </c>
+      <c r="C52" s="4">
+        <v>1</v>
+      </c>
+      <c r="D52" s="4">
+        <v>1</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H52" s="4">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J52" s="4">
+        <v>0</v>
+      </c>
+      <c r="K52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" ht="90" spans="1:11">
+      <c r="A53" s="4">
+        <v>11001</v>
+      </c>
+      <c r="B53" s="4">
+        <v>1</v>
+      </c>
+      <c r="C53" s="4">
+        <v>1</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G53" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H53" s="4">
+        <v>0</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J53" s="4">
+        <v>0</v>
+      </c>
+      <c r="K53" s="4">
+        <v>10102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="4">
+        <v>11002</v>
+      </c>
+      <c r="B54" s="4">
+        <v>0</v>
+      </c>
+      <c r="C54" s="4">
+        <v>1</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G54" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H54" s="4">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J54" s="4">
+        <v>0</v>
+      </c>
+      <c r="K54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" ht="90" spans="1:11">
+      <c r="A55" s="4">
+        <v>11101</v>
+      </c>
+      <c r="B55" s="4">
+        <v>0</v>
+      </c>
+      <c r="C55" s="4">
+        <v>1</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G55" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H55" s="4">
+        <v>0</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J55" s="4">
+        <v>0</v>
+      </c>
+      <c r="K55" s="4">
+        <v>11102</v>
+      </c>
+    </row>
+    <row r="56" ht="60" spans="1:11">
+      <c r="A56" s="4">
+        <v>11102</v>
+      </c>
+      <c r="B56" s="4">
+        <v>2</v>
+      </c>
+      <c r="C56" s="4">
+        <v>2</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G56" s="4">
+        <v>0</v>
+      </c>
+      <c r="H56" s="4">
+        <v>0</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J56" s="4">
+        <v>0</v>
+      </c>
+      <c r="K56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" ht="90" spans="1:11">
+      <c r="A57" s="4">
+        <v>1901</v>
+      </c>
+      <c r="B57" s="4">
+        <v>3</v>
+      </c>
+      <c r="C57" s="4">
+        <v>4</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G57" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H57" s="4">
+        <v>-5</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J57" s="4">
+        <v>0</v>
+      </c>
+      <c r="K57" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" ht="90" spans="1:11">
+      <c r="A58" s="4">
+        <v>11201</v>
+      </c>
+      <c r="B58" s="4">
+        <v>2</v>
+      </c>
+      <c r="C58" s="4">
+        <v>1</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G58" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H58" s="4">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J58" s="4">
+        <v>0</v>
+      </c>
+      <c r="K58" s="4">
+        <v>11202</v>
+      </c>
+    </row>
+    <row r="59" ht="60" spans="1:11">
+      <c r="A59" s="4">
+        <v>11202</v>
+      </c>
+      <c r="B59" s="4">
+        <v>0</v>
+      </c>
+      <c r="C59" s="4">
+        <v>2</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G59" s="4">
+        <v>0</v>
+      </c>
+      <c r="H59" s="4">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J59" s="4">
+        <v>0</v>
+      </c>
+      <c r="K59" s="4">
+        <v>11203</v>
+      </c>
+    </row>
+    <row r="60" ht="90" spans="1:11">
+      <c r="A60" s="4">
+        <v>11203</v>
+      </c>
+      <c r="B60" s="4">
+        <v>0</v>
+      </c>
+      <c r="C60" s="4">
+        <v>1</v>
+      </c>
+      <c r="D60" s="4">
+        <v>1</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G60" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H60" s="4">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J60" s="4">
+        <v>0</v>
+      </c>
+      <c r="K60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" ht="60" spans="1:11">
+      <c r="A61" s="4">
+        <v>11301</v>
+      </c>
+      <c r="B61" s="4">
+        <v>0</v>
+      </c>
+      <c r="C61" s="4">
+        <v>1</v>
+      </c>
+      <c r="D61" s="4">
+        <v>1</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G61" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H61" s="4">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J61" s="4">
+        <v>0</v>
+      </c>
+      <c r="K61" s="4">
+        <v>11302</v>
+      </c>
+    </row>
+    <row r="62" ht="90" spans="1:11">
+      <c r="A62" s="4">
+        <v>11302</v>
+      </c>
+      <c r="B62" s="4">
+        <v>12</v>
+      </c>
+      <c r="C62" s="4">
+        <v>1</v>
+      </c>
+      <c r="D62" s="4">
+        <v>1</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G62" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H62" s="4">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J62" s="4">
+        <v>0</v>
+      </c>
+      <c r="K62" s="4">
+        <v>11303</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="4">
+        <v>11303</v>
+      </c>
+      <c r="B63" s="4">
+        <v>0</v>
+      </c>
+      <c r="C63" s="4">
+        <v>4</v>
+      </c>
+      <c r="D63" s="4">
+        <v>1</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G63" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H63" s="4">
+        <v>-5</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J63" s="4">
+        <v>0</v>
+      </c>
+      <c r="K63" s="4">
+        <v>11304</v>
+      </c>
+    </row>
+    <row r="64" ht="180" spans="1:11">
+      <c r="A64" s="4">
+        <v>11304</v>
+      </c>
+      <c r="B64" s="4">
+        <v>12</v>
+      </c>
+      <c r="C64" s="4">
+        <v>1</v>
+      </c>
+      <c r="D64" s="4">
+        <v>1</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G64" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H64" s="4">
+        <v>0</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J64" s="4">
+        <v>0</v>
+      </c>
+      <c r="K64" s="4">
+        <v>11305</v>
+      </c>
+    </row>
+    <row r="65" ht="120" spans="1:11">
+      <c r="A65" s="4">
+        <v>11305</v>
+      </c>
+      <c r="B65" s="4">
+        <v>12</v>
+      </c>
+      <c r="C65" s="4">
+        <v>1</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G65" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H65" s="4">
+        <v>0</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J65" s="4">
+        <v>0</v>
+      </c>
+      <c r="K65" s="4">
+        <v>11306</v>
+      </c>
+    </row>
+    <row r="66" ht="120" spans="1:11">
+      <c r="A66" s="4">
+        <v>11306</v>
+      </c>
+      <c r="B66" s="4">
+        <v>12</v>
+      </c>
+      <c r="C66" s="4">
+        <v>1</v>
+      </c>
+      <c r="D66" s="4">
+        <v>1</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G66" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H66" s="4">
+        <v>0</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J66" s="4">
+        <v>0</v>
+      </c>
+      <c r="K66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" ht="60" spans="1:11">
+      <c r="A67" s="4">
+        <v>2001</v>
+      </c>
+      <c r="B67" s="4">
+        <v>13</v>
+      </c>
+      <c r="C67" s="4">
+        <v>0</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G67" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H67" s="4">
+        <v>0</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J67" s="4">
+        <v>0</v>
+      </c>
+      <c r="K67" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" ht="60" spans="1:11">
+      <c r="A68" s="4">
+        <v>2101</v>
+      </c>
+      <c r="B68" s="4">
+        <v>14</v>
+      </c>
+      <c r="C68" s="4">
+        <v>0</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G68" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H68" s="4">
+        <v>0</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J68" s="4">
+        <v>0</v>
+      </c>
+      <c r="K68" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="4">
+        <v>2201</v>
+      </c>
+      <c r="B69" s="4">
+        <v>15</v>
+      </c>
+      <c r="C69" s="4">
+        <v>0</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G69" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H69" s="4">
+        <v>0</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J69" s="4">
+        <v>0</v>
+      </c>
+      <c r="K69" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" ht="90" spans="1:11">
+      <c r="A70" s="4">
+        <v>2301</v>
+      </c>
+      <c r="B70" s="4">
+        <v>3</v>
+      </c>
+      <c r="C70" s="4">
+        <v>0</v>
+      </c>
+      <c r="D70" s="4">
+        <v>0</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G70" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H70" s="4">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J70" s="4">
+        <v>0</v>
+      </c>
+      <c r="K70" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" ht="60" spans="1:11">
+      <c r="A71" s="4">
+        <v>11401</v>
+      </c>
+      <c r="B71" s="4">
+        <v>1</v>
+      </c>
+      <c r="C71" s="4">
+        <v>0</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G71" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H71" s="4">
+        <v>0</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J71" s="4">
+        <v>0</v>
+      </c>
+      <c r="K71" s="4">
+        <v>11402</v>
+      </c>
+    </row>
+    <row r="72" ht="90" spans="1:11">
+      <c r="A72" s="4">
+        <v>11402</v>
+      </c>
+      <c r="B72" s="4">
+        <v>0</v>
+      </c>
+      <c r="C72" s="4">
+        <v>3</v>
+      </c>
+      <c r="D72" s="4">
+        <v>1</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G72" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H72" s="4">
+        <v>0</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J72" s="4">
+        <v>0</v>
+      </c>
+      <c r="K72" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" ht="90" spans="1:11">
+      <c r="A73" s="4">
+        <v>11501</v>
+      </c>
+      <c r="B73" s="4">
+        <v>16</v>
+      </c>
+      <c r="C73" s="4">
+        <v>1</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G73" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H73" s="4">
+        <v>0</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J73" s="4">
+        <v>0</v>
+      </c>
+      <c r="K73" s="4">
+        <v>11502</v>
+      </c>
+    </row>
+    <row r="74" ht="120" spans="1:11">
+      <c r="A74" s="4">
+        <v>11502</v>
+      </c>
+      <c r="B74" s="4">
+        <v>2</v>
+      </c>
+      <c r="C74" s="4">
+        <v>1</v>
+      </c>
+      <c r="D74" s="4">
+        <v>1</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G74" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H74" s="4">
+        <v>0</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J74" s="4">
+        <v>0</v>
+      </c>
+      <c r="K74" s="4">
+        <v>11503</v>
+      </c>
+    </row>
+    <row r="75" ht="120" spans="1:11">
+      <c r="A75" s="4">
+        <v>11503</v>
+      </c>
+      <c r="B75" s="4">
+        <v>2</v>
+      </c>
+      <c r="C75" s="4">
+        <v>1</v>
+      </c>
+      <c r="D75" s="4">
+        <v>1</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G75" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H75" s="4">
+        <v>0</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J75" s="4">
+        <v>0</v>
+      </c>
+      <c r="K75" s="4">
+        <v>11504</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="4">
+        <v>11504</v>
+      </c>
+      <c r="B76" s="4">
+        <v>2</v>
+      </c>
+      <c r="C76" s="4">
+        <v>1</v>
+      </c>
+      <c r="D76" s="4">
+        <v>1</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G76" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H76" s="4">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J76" s="4">
+        <v>0</v>
+      </c>
+      <c r="K76" s="4">
+        <v>11505</v>
+      </c>
+    </row>
+    <row r="77" ht="60" spans="1:11">
+      <c r="A77" s="4">
+        <v>11505</v>
+      </c>
+      <c r="B77" s="4">
+        <v>2</v>
+      </c>
+      <c r="C77" s="4">
+        <v>1</v>
+      </c>
+      <c r="D77" s="4">
+        <v>1</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G77" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H77" s="4">
+        <v>0</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J77" s="4">
+        <v>0</v>
+      </c>
+      <c r="K77" s="4">
+        <v>11506</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="4">
+        <v>11506</v>
+      </c>
+      <c r="B78" s="4">
+        <v>2</v>
+      </c>
+      <c r="C78" s="4">
+        <v>1</v>
+      </c>
+      <c r="D78" s="4">
+        <v>1</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G78" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H78" s="4">
+        <v>0</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J78" s="4">
+        <v>0</v>
+      </c>
+      <c r="K78" s="4">
+        <v>11507</v>
+      </c>
+    </row>
+    <row r="79" ht="60" spans="1:11">
+      <c r="A79" s="4">
+        <v>11507</v>
+      </c>
+      <c r="B79" s="4">
+        <v>2</v>
+      </c>
+      <c r="C79" s="4">
+        <v>1</v>
+      </c>
+      <c r="D79" s="4">
+        <v>1</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G79" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H79" s="4">
+        <v>0</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J79" s="4">
+        <v>0</v>
+      </c>
+      <c r="K79" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" ht="150" spans="1:11">
+      <c r="A80" s="4">
+        <v>11601</v>
+      </c>
+      <c r="B80" s="4">
+        <v>2</v>
+      </c>
+      <c r="C80" s="4">
+        <v>1</v>
+      </c>
+      <c r="D80" s="4">
+        <v>0</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G80" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H80" s="4">
+        <v>0</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J80" s="4">
+        <v>0</v>
+      </c>
+      <c r="K80" s="4">
+        <v>11602</v>
+      </c>
+    </row>
+    <row r="81" ht="90" spans="1:11">
+      <c r="A81" s="4">
+        <v>11602</v>
+      </c>
+      <c r="B81" s="4">
+        <v>2</v>
+      </c>
+      <c r="C81" s="4">
+        <v>1</v>
+      </c>
+      <c r="D81" s="4">
+        <v>1</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G81" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H81" s="4">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J81" s="4">
+        <v>0</v>
+      </c>
+      <c r="K81" s="4">
+        <v>11603</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="4">
+        <v>11603</v>
+      </c>
+      <c r="B82" s="4">
+        <v>2</v>
+      </c>
+      <c r="C82" s="4">
+        <v>1</v>
+      </c>
+      <c r="D82" s="4">
+        <v>1</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G82" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H82" s="4">
+        <v>0</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J82" s="4">
+        <v>0</v>
+      </c>
+      <c r="K82" s="4">
+        <v>11604</v>
+      </c>
+    </row>
+    <row r="83" ht="90" spans="1:11">
+      <c r="A83" s="4">
+        <v>11604</v>
+      </c>
+      <c r="B83" s="4">
+        <v>2</v>
+      </c>
+      <c r="C83" s="4">
+        <v>1</v>
+      </c>
+      <c r="D83" s="4">
+        <v>1</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G83" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H83" s="4">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J83" s="4">
+        <v>0</v>
+      </c>
+      <c r="K83" s="4">
+        <v>11605</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="4">
+        <v>11605</v>
+      </c>
+      <c r="B84" s="4">
+        <v>2</v>
+      </c>
+      <c r="C84" s="4">
+        <v>1</v>
+      </c>
+      <c r="D84" s="4">
+        <v>1</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G84" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H84" s="4">
+        <v>0</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J84" s="4">
+        <v>0</v>
+      </c>
+      <c r="K84" s="4">
+        <v>11606</v>
+      </c>
+    </row>
+    <row r="85" ht="90" spans="1:11">
+      <c r="A85" s="4">
+        <v>11606</v>
+      </c>
+      <c r="B85" s="4">
+        <v>2</v>
+      </c>
+      <c r="C85" s="4">
+        <v>1</v>
+      </c>
+      <c r="D85" s="4">
+        <v>1</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G85" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H85" s="4">
+        <v>0</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J85" s="4">
+        <v>0</v>
+      </c>
+      <c r="K85" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" ht="90" spans="1:11">
+      <c r="A86" s="4">
+        <v>2401</v>
+      </c>
+      <c r="B86" s="4">
+        <v>0</v>
+      </c>
+      <c r="C86" s="4">
+        <v>0</v>
+      </c>
+      <c r="D86" s="4">
+        <v>0</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G86" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H86" s="4">
+        <v>0</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J86" s="4">
+        <v>0</v>
+      </c>
+      <c r="K86" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" ht="90" spans="1:11">
+      <c r="A87" s="4">
+        <v>11701</v>
+      </c>
+      <c r="B87" s="4">
+        <v>0</v>
+      </c>
+      <c r="C87" s="4">
+        <v>4</v>
+      </c>
+      <c r="D87" s="4">
+        <v>0</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G87" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H87" s="4">
+        <v>-20</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J87" s="4">
+        <v>0</v>
+      </c>
+      <c r="K87" s="4">
+        <v>11702</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="4">
+        <v>11702</v>
+      </c>
+      <c r="B88" s="4">
+        <v>0</v>
+      </c>
+      <c r="C88" s="4">
+        <v>0</v>
+      </c>
+      <c r="D88" s="4">
+        <v>1</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G88" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H88" s="4">
+        <v>0</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J88" s="4">
+        <v>0</v>
+      </c>
+      <c r="K88" s="4">
+        <v>11703</v>
+      </c>
+    </row>
+    <row r="89" ht="60" spans="1:11">
+      <c r="A89" s="4">
+        <v>11703</v>
+      </c>
+      <c r="B89" s="4">
+        <v>0</v>
+      </c>
+      <c r="C89" s="4">
+        <v>0</v>
+      </c>
+      <c r="D89" s="4">
+        <v>1</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G89" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H89" s="4">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J89" s="4">
+        <v>0</v>
+      </c>
+      <c r="K89" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" ht="60" spans="1:11">
+      <c r="A90" s="4">
+        <v>2501</v>
+      </c>
+      <c r="B90" s="4">
+        <v>0</v>
+      </c>
+      <c r="C90" s="4">
+        <v>0</v>
+      </c>
+      <c r="D90" s="4">
+        <v>0</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G90" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H90" s="4">
+        <v>0</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J90" s="4">
+        <v>0</v>
+      </c>
+      <c r="K90" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" ht="60" spans="1:11">
+      <c r="A91" s="4">
+        <v>2601</v>
+      </c>
+      <c r="B91" s="4">
+        <v>2</v>
+      </c>
+      <c r="C91" s="4">
+        <v>0</v>
+      </c>
+      <c r="D91" s="4">
+        <v>0</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G91" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H91" s="4">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J91" s="4">
+        <v>0</v>
+      </c>
+      <c r="K91" s="4">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="92" ht="90" spans="1:11">
+      <c r="A92" s="4">
+        <v>2602</v>
+      </c>
+      <c r="B92" s="4">
+        <v>2</v>
+      </c>
+      <c r="C92" s="4">
+        <v>0</v>
+      </c>
+      <c r="D92" s="4">
+        <v>1</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G92" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H92" s="4">
+        <v>0</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J92" s="4">
+        <v>0</v>
+      </c>
+      <c r="K92" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" ht="63" spans="1:11">
+      <c r="A93" s="4">
+        <v>11801</v>
+      </c>
+      <c r="B93" s="4">
+        <v>0</v>
+      </c>
+      <c r="C93" s="4">
+        <v>4</v>
+      </c>
+      <c r="D93" s="4">
+        <v>0</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G93" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H93" s="4">
+        <v>-10</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J93" s="4">
+        <v>0</v>
+      </c>
+      <c r="K93" s="4">
+        <v>11802</v>
+      </c>
+    </row>
+    <row r="94" ht="120" spans="1:11">
+      <c r="A94" s="4">
+        <v>11802</v>
+      </c>
+      <c r="B94" s="4">
+        <v>0</v>
+      </c>
+      <c r="C94" s="4">
+        <v>4</v>
+      </c>
+      <c r="D94" s="4">
+        <v>1</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G94" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H94" s="4">
+        <v>-10</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J94" s="4">
+        <v>0</v>
+      </c>
+      <c r="K94" s="4">
+        <v>11803</v>
+      </c>
+    </row>
+    <row r="95" ht="60" spans="1:11">
+      <c r="A95" s="4">
+        <v>11803</v>
+      </c>
+      <c r="B95" s="4">
+        <v>0</v>
+      </c>
+      <c r="C95" s="4">
+        <v>4</v>
+      </c>
+      <c r="D95" s="4">
+        <v>1</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G95" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H95" s="4">
+        <v>-10</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J95" s="4">
+        <v>0</v>
+      </c>
+      <c r="K95" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360"/>
   <headerFooter/>
 </worksheet>
 </file>